--- a/static/performance_comparison.xlsx
+++ b/static/performance_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jefan\Documents\comp-472-a2\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3E9A49-A4C0-4B06-8276-9A9F58FE32CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1961BD24-CA15-44DD-B955-62921BC58054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/static/performance_comparison.xlsx
+++ b/static/performance_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jefan\Documents\comp-472-a2\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E492304-BE0C-4E99-8173-7A45E60D2E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13B8578-809A-4982-8AE4-0E4CE702816F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,14 +181,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72950139-9384-F44D-AC8F-49BC7107200F}" name="Table1" displayName="Table1" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F1048576" xr:uid="{72950139-9384-F44D-AC8F-49BC7107200F}">
-    <filterColumn colId="1">
-      <filters blank="1">
-        <filter val="A*"/>
-        <filter val="UCS"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F1048576" xr:uid="{72950139-9384-F44D-AC8F-49BC7107200F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{BCDEBBB4-DA95-1A41-922F-45487610C912}" name="Puzzle Number" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{02D6FB39-86C4-A643-B44B-12B60292C161}" name="Algorithm" dataDxfId="4"/>
@@ -488,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +535,7 @@
         <v>2.6900768280029201E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -562,7 +555,7 @@
         <v>1.8932819366455E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -582,7 +575,7 @@
         <v>6.3819885253906198E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -602,7 +595,7 @@
         <v>2.3119449615478498E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -722,7 +715,7 @@
         <v>4.3731212615966797E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -742,7 +735,7 @@
         <v>5.0909519195556597E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -762,7 +755,7 @@
         <v>7.7011585235595703E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -782,7 +775,7 @@
         <v>1.2975931167602499E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -902,7 +895,7 @@
         <v>4.2066812515258699E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -922,7 +915,7 @@
         <v>3.4328937530517502E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -942,7 +935,7 @@
         <v>3.01146507263183E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -962,7 +955,7 @@
         <v>3.0335903167724599E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -1082,7 +1075,7 @@
         <v>6.32634997367858</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>4</v>
       </c>
@@ -1102,7 +1095,7 @@
         <v>0.146399021148681</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>4</v>
       </c>
@@ -1122,7 +1115,7 @@
         <v>0.14487433433532701</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>4</v>
       </c>
@@ -1142,7 +1135,7 @@
         <v>0.14608788490295399</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>4</v>
       </c>
@@ -1262,7 +1255,7 @@
         <v>10.0532209873199</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>5</v>
       </c>
@@ -1282,7 +1275,7 @@
         <v>3.7471809387207</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>5</v>
       </c>
@@ -1302,7 +1295,7 @@
         <v>3.7834348678588801</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>5</v>
       </c>
@@ -1322,7 +1315,7 @@
         <v>3.77070879936218</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>5</v>
       </c>
@@ -1442,7 +1435,7 @@
         <v>0.49767994880676197</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>6</v>
       </c>
@@ -1462,7 +1455,7 @@
         <v>5.8825969696044901E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>6</v>
       </c>
@@ -1482,7 +1475,7 @@
         <v>5.8778047561645501E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>6</v>
       </c>
@@ -1502,7 +1495,7 @@
         <v>5.9090852737426702E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>6</v>
       </c>
@@ -1622,7 +1615,7 @@
         <v>3.2091140747070302E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>7</v>
       </c>
@@ -1642,7 +1635,7 @@
         <v>4.0292739868163997E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>7</v>
       </c>
@@ -1662,7 +1655,7 @@
         <v>3.8194656372070302E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>7</v>
       </c>
@@ -1682,7 +1675,7 @@
         <v>4.0602684020996002E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>7</v>
       </c>
@@ -1802,7 +1795,7 @@
         <v>0.52034902572631803</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>8</v>
       </c>
@@ -1822,7 +1815,7 @@
         <v>8.8450908660888602E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>8</v>
       </c>
@@ -1842,7 +1835,7 @@
         <v>8.7540149688720703E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>8</v>
       </c>
@@ -1862,7 +1855,7 @@
         <v>8.8448524475097604E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>8</v>
       </c>
@@ -1982,7 +1975,7 @@
         <v>0.27347397804260198</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>9</v>
       </c>
@@ -2002,7 +1995,7 @@
         <v>7.1836948394775293E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>9</v>
       </c>
@@ -2022,7 +2015,7 @@
         <v>7.5124979019164997E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>9</v>
       </c>
@@ -2042,7 +2035,7 @@
         <v>7.1399927139282199E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>9</v>
       </c>
@@ -2162,7 +2155,7 @@
         <v>1.1449561119079501</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>10</v>
       </c>
@@ -2182,7 +2175,7 @@
         <v>2.06642413139343</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>10</v>
       </c>
@@ -2202,7 +2195,7 @@
         <v>2.0605208873748699</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>10</v>
       </c>
@@ -2222,7 +2215,7 @@
         <v>2.1053900718688898</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>10</v>
       </c>
@@ -2342,7 +2335,7 @@
         <v>3.1629085540771401E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>11</v>
       </c>
@@ -2362,7 +2355,7 @@
         <v>3.6700248718261698E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>11</v>
       </c>
@@ -2382,7 +2375,7 @@
         <v>3.6509037017822203E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>11</v>
       </c>
@@ -2402,7 +2395,7 @@
         <v>3.6949872970580999E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>11</v>
       </c>
@@ -2522,7 +2515,7 @@
         <v>0.14385104179382299</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>12</v>
       </c>
@@ -2542,7 +2535,7 @@
         <v>0.193747043609619</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>12</v>
       </c>
@@ -2562,7 +2555,7 @@
         <v>0.19192385673522899</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>12</v>
       </c>
@@ -2582,7 +2575,7 @@
         <v>0.19406700134277299</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>12</v>
       </c>
@@ -2702,7 +2695,7 @@
         <v>10.549791097640901</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>13</v>
       </c>
@@ -2722,7 +2715,7 @@
         <v>9.5490932464599595E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>13</v>
       </c>
@@ -2742,7 +2735,7 @@
         <v>9.56089496612548E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>13</v>
       </c>
@@ -2762,7 +2755,7 @@
         <v>9.5793008804321206E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>13</v>
       </c>
@@ -2882,7 +2875,7 @@
         <v>0.53447604179382302</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>14</v>
       </c>
@@ -2902,7 +2895,7 @@
         <v>0.22989606857299799</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>14</v>
       </c>
@@ -2922,7 +2915,7 @@
         <v>0.23034501075744601</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>14</v>
       </c>
@@ -2942,7 +2935,7 @@
         <v>0.230278015136718</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>14</v>
       </c>
@@ -3062,7 +3055,7 @@
         <v>11.3562891483306</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>15</v>
       </c>
@@ -3082,7 +3075,7 @@
         <v>1.7901241779327299</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>15</v>
       </c>
@@ -3102,7 +3095,7 @@
         <v>1.7984418869018499</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>15</v>
       </c>
@@ -3122,7 +3115,7 @@
         <v>1.8394877910614</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>15</v>
       </c>
@@ -3242,7 +3235,7 @@
         <v>20.033944606780999</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>16</v>
       </c>
@@ -3262,7 +3255,7 @@
         <v>3.8725328445434499</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>16</v>
       </c>
@@ -3282,7 +3275,7 @@
         <v>3.9286150932311998</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>16</v>
       </c>
@@ -3302,7 +3295,7 @@
         <v>3.9629981517791699</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>16</v>
       </c>
@@ -3422,7 +3415,7 @@
         <v>131.06439208984301</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>17</v>
       </c>
@@ -3442,7 +3435,7 @@
         <v>7.0748019218444798</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>17</v>
       </c>
@@ -3462,7 +3455,7 @@
         <v>7.2550389766693097</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>17</v>
       </c>
@@ -3482,7 +3475,7 @@
         <v>7.0673322677612296</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>17</v>
       </c>
@@ -3602,7 +3595,7 @@
         <v>0.38750481605529702</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>18</v>
       </c>
@@ -3622,7 +3615,7 @@
         <v>0.67025613784789995</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>18</v>
       </c>
@@ -3642,7 +3635,7 @@
         <v>0.65941667556762695</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>18</v>
       </c>
@@ -3662,7 +3655,7 @@
         <v>0.66122698783874501</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>18</v>
       </c>
@@ -3782,7 +3775,7 @@
         <v>9.4073772430419894E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>19</v>
       </c>
@@ -3802,7 +3795,7 @@
         <v>1.3010025024414E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>19</v>
       </c>
@@ -3822,7 +3815,7 @@
         <v>1.285982131958E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>19</v>
       </c>
@@ -3842,7 +3835,7 @@
         <v>1.2907028198242101E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>19</v>
       </c>
@@ -3962,7 +3955,7 @@
         <v>520.32014679908696</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>20</v>
       </c>
@@ -3982,7 +3975,7 @@
         <v>21.0363318920135</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>20</v>
       </c>
@@ -4002,7 +3995,7 @@
         <v>20.922146797180101</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>20</v>
       </c>
@@ -4022,7 +4015,7 @@
         <v>20.929525852203302</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>20</v>
       </c>
@@ -4142,7 +4135,7 @@
         <v>7.3877096176147405E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>21</v>
       </c>
@@ -4162,7 +4155,7 @@
         <v>1.73230171203613E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>21</v>
       </c>
@@ -4182,7 +4175,7 @@
         <v>1.6940116882324201E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>21</v>
       </c>
@@ -4202,7 +4195,7 @@
         <v>1.7186164855957E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>21</v>
       </c>
@@ -4322,7 +4315,7 @@
         <v>9.5794916152954102E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>22</v>
       </c>
@@ -4342,7 +4335,7 @@
         <v>5.1200389862060504E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>22</v>
       </c>
@@ -4362,7 +4355,7 @@
         <v>5.1438808441162101E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>22</v>
       </c>
@@ -4382,7 +4375,7 @@
         <v>5.1281452178955E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>22</v>
       </c>
@@ -4502,7 +4495,7 @@
         <v>3.4460961818695002</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>23</v>
       </c>
@@ -4522,7 +4515,7 @@
         <v>7.0292949676513602E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>23</v>
       </c>
@@ -4542,7 +4535,7 @@
         <v>7.2252273559570299E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>23</v>
       </c>
@@ -4562,7 +4555,7 @@
         <v>7.2114944458007799E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>23</v>
       </c>
@@ -4682,7 +4675,7 @@
         <v>12.2834737300872</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>24</v>
       </c>
@@ -4702,7 +4695,7 @@
         <v>1.44681930541992E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>24</v>
       </c>
@@ -4722,7 +4715,7 @@
         <v>1.43282413482666E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>24</v>
       </c>
@@ -4742,7 +4735,7 @@
         <v>1.4456033706664999E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>24</v>
       </c>
@@ -4862,7 +4855,7 @@
         <v>0.497489213943481</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>25</v>
       </c>
@@ -4882,7 +4875,7 @@
         <v>0.68821597099304199</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>25</v>
       </c>
@@ -4902,7 +4895,7 @@
         <v>0.68824028968811002</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>25</v>
       </c>
@@ -4922,7 +4915,7 @@
         <v>0.68697118759155196</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>25</v>
       </c>
@@ -5042,7 +5035,7 @@
         <v>5.0942900180816597</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>26</v>
       </c>
@@ -5062,7 +5055,7 @@
         <v>0.53813982009887695</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>26</v>
       </c>
@@ -5082,7 +5075,7 @@
         <v>0.53138899803161599</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>26</v>
       </c>
@@ -5102,7 +5095,7 @@
         <v>0.53457307815551702</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>26</v>
       </c>
@@ -5222,7 +5215,7 @@
         <v>36.658689022064202</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>27</v>
       </c>
@@ -5242,7 +5235,7 @@
         <v>9.0470089912414497</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>27</v>
       </c>
@@ -5262,7 +5255,7 @@
         <v>9.0258040428161603</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>27</v>
       </c>
@@ -5282,7 +5275,7 @@
         <v>9.2141709327697701</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>27</v>
       </c>
@@ -5402,7 +5395,7 @@
         <v>24.483941793441701</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>28</v>
       </c>
@@ -5422,7 +5415,7 @@
         <v>10.8163127899169</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>28</v>
       </c>
@@ -5442,7 +5435,7 @@
         <v>10.760528802871701</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>28</v>
       </c>
@@ -5462,7 +5455,7 @@
         <v>10.725337266921899</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>28</v>
       </c>
@@ -5582,7 +5575,7 @@
         <v>0.63617587089538497</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>29</v>
       </c>
@@ -5602,7 +5595,7 @@
         <v>0.202867746353149</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>29</v>
       </c>
@@ -5622,7 +5615,7 @@
         <v>0.20327591896057101</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>29</v>
       </c>
@@ -5642,7 +5635,7 @@
         <v>0.204195261001586</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>29</v>
       </c>
@@ -5762,7 +5755,7 @@
         <v>3.2293198108672998</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>30</v>
       </c>
@@ -5782,7 +5775,7 @@
         <v>9.5994949340820299E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>30</v>
       </c>
@@ -5802,7 +5795,7 @@
         <v>9.8766088485717704E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>30</v>
       </c>
@@ -5822,7 +5815,7 @@
         <v>9.6819877624511705E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>30</v>
       </c>
@@ -5942,7 +5935,7 @@
         <v>3.78979468345642</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>31</v>
       </c>
@@ -5962,7 +5955,7 @@
         <v>0.235907077789306</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>31</v>
       </c>
@@ -5982,7 +5975,7 @@
         <v>0.231543779373168</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>31</v>
       </c>
@@ -6002,7 +5995,7 @@
         <v>0.232917070388793</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>31</v>
       </c>
@@ -6122,7 +6115,7 @@
         <v>3.9598941802978502E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>32</v>
       </c>
@@ -6142,7 +6135,7 @@
         <v>4.6652317047119099E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>32</v>
       </c>
@@ -6162,7 +6155,7 @@
         <v>4.6302080154418897E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>32</v>
       </c>
@@ -6182,7 +6175,7 @@
         <v>4.6794891357421799E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>32</v>
       </c>
@@ -6302,7 +6295,7 @@
         <v>7.5380709171295104</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>33</v>
       </c>
@@ -6322,7 +6315,7 @@
         <v>0.42929291725158603</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>33</v>
       </c>
@@ -6342,7 +6335,7 @@
         <v>0.450633764266967</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>33</v>
       </c>
@@ -6362,7 +6355,7 @@
         <v>0.434530019760131</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>33</v>
       </c>
@@ -6482,7 +6475,7 @@
         <v>127.017810106277</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>34</v>
       </c>
@@ -6502,7 +6495,7 @@
         <v>3.0556499958038299</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>34</v>
       </c>
@@ -6522,7 +6515,7 @@
         <v>3.0654330253600999</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>34</v>
       </c>
@@ -6542,7 +6535,7 @@
         <v>3.0860481262207</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>34</v>
       </c>
@@ -6662,7 +6655,7 @@
         <v>4.8835980892181396</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>35</v>
       </c>
@@ -6682,7 +6675,7 @@
         <v>2.1427478790283199</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>35</v>
       </c>
@@ -6702,7 +6695,7 @@
         <v>2.1733212471008301</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>35</v>
       </c>
@@ -6722,7 +6715,7 @@
         <v>2.1289217472076398</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>35</v>
       </c>
@@ -6842,7 +6835,7 @@
         <v>0.27245616912841703</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>36</v>
       </c>
@@ -6862,7 +6855,7 @@
         <v>0.414534091949462</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>36</v>
       </c>
@@ -6882,7 +6875,7 @@
         <v>0.41523504257202098</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>36</v>
       </c>
@@ -6902,7 +6895,7 @@
         <v>0.42662310600280701</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>36</v>
       </c>
@@ -7022,7 +7015,7 @@
         <v>4.9022479057312003</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>37</v>
       </c>
@@ -7042,7 +7035,7 @@
         <v>2.12908506393432</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>37</v>
       </c>
@@ -7062,7 +7055,7 @@
         <v>2.1331970691680899</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>37</v>
       </c>
@@ -7082,7 +7075,7 @@
         <v>2.1265401840209899</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>37</v>
       </c>
@@ -7202,7 +7195,7 @@
         <v>24.578195095062199</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>38</v>
       </c>
@@ -7222,7 +7215,7 @@
         <v>40.600879907607997</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>38</v>
       </c>
@@ -7242,7 +7235,7 @@
         <v>40.709401130676198</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>38</v>
       </c>
@@ -7262,7 +7255,7 @@
         <v>40.643004179000798</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>38</v>
       </c>
@@ -7382,7 +7375,7 @@
         <v>7.3360478878021196</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>39</v>
       </c>
@@ -7402,7 +7395,7 @@
         <v>12.855179071426299</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>39</v>
       </c>
@@ -7422,7 +7415,7 @@
         <v>12.7273380756378</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>39</v>
       </c>
@@ -7442,7 +7435,7 @@
         <v>12.767460823059</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>39</v>
       </c>
@@ -7562,7 +7555,7 @@
         <v>9.8658349514007497</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>40</v>
       </c>
@@ -7582,7 +7575,7 @@
         <v>17.396421194076499</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>40</v>
       </c>
@@ -7602,7 +7595,7 @@
         <v>17.350839138030999</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>40</v>
       </c>
@@ -7622,7 +7615,7 @@
         <v>17.417016983032202</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>40</v>
       </c>
@@ -7742,7 +7735,7 @@
         <v>2.6185989379882799E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>41</v>
       </c>
@@ -7762,7 +7755,7 @@
         <v>5.8801174163818299E-3</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>41</v>
       </c>
@@ -7782,7 +7775,7 @@
         <v>5.8209896087646398E-3</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>41</v>
       </c>
@@ -7802,7 +7795,7 @@
         <v>5.9609413146972604E-3</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>41</v>
       </c>
@@ -7922,7 +7915,7 @@
         <v>2.4233818054199201E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>42</v>
       </c>
@@ -7942,7 +7935,7 @@
         <v>1.0142326354980399E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>42</v>
       </c>
@@ -7962,7 +7955,7 @@
         <v>1.00610256195068E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>42</v>
       </c>
@@ -7982,7 +7975,7 @@
         <v>1.0301113128662101E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>42</v>
       </c>
@@ -8102,7 +8095,7 @@
         <v>2.7584547996520898</v>
       </c>
     </row>
-    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>43</v>
       </c>
@@ -8122,7 +8115,7 @@
         <v>0.13687586784362701</v>
       </c>
     </row>
-    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>43</v>
       </c>
@@ -8142,7 +8135,7 @@
         <v>0.131079912185668</v>
       </c>
     </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>43</v>
       </c>
@@ -8162,7 +8155,7 @@
         <v>0.13184690475463801</v>
       </c>
     </row>
-    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>43</v>
       </c>
@@ -8282,7 +8275,7 @@
         <v>0.10259199142456001</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>44</v>
       </c>
@@ -8302,7 +8295,7 @@
         <v>1.6358137130737301E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>44</v>
       </c>
@@ -8322,7 +8315,7 @@
         <v>1.6175985336303701E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>44</v>
       </c>
@@ -8342,7 +8335,7 @@
         <v>1.6566038131713801E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>44</v>
       </c>
@@ -8462,7 +8455,7 @@
         <v>5.3038597106933498E-3</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>45</v>
       </c>
@@ -8482,7 +8475,7 @@
         <v>5.1112174987792899E-3</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>45</v>
       </c>
@@ -8502,7 +8495,7 @@
         <v>5.1760673522949201E-3</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>45</v>
       </c>
@@ -8522,7 +8515,7 @@
         <v>5.1012039184570304E-3</v>
       </c>
     </row>
-    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>45</v>
       </c>
@@ -8642,7 +8635,7 @@
         <v>2.4320979118347101</v>
       </c>
     </row>
-    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>46</v>
       </c>
@@ -8662,7 +8655,7 @@
         <v>3.64419317245483</v>
       </c>
     </row>
-    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>46</v>
       </c>
@@ -8682,7 +8675,7 @@
         <v>3.6490721702575599</v>
       </c>
     </row>
-    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>46</v>
       </c>
@@ -8702,7 +8695,7 @@
         <v>3.6450097560882502</v>
       </c>
     </row>
-    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>46</v>
       </c>
@@ -8822,7 +8815,7 @@
         <v>5.1620006561279297E-3</v>
       </c>
     </row>
-    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>47</v>
       </c>
@@ -8842,7 +8835,7 @@
         <v>3.7169456481933498E-3</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>47</v>
       </c>
@@ -8862,7 +8855,7 @@
         <v>3.6790370941162101E-3</v>
       </c>
     </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>47</v>
       </c>
@@ -8882,7 +8875,7 @@
         <v>3.75604629516601E-3</v>
       </c>
     </row>
-    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>47</v>
       </c>
@@ -9002,7 +8995,7 @@
         <v>1.8561124801635701E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>48</v>
       </c>
@@ -9022,7 +9015,7 @@
         <v>2.4605274200439401E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>48</v>
       </c>
@@ -9042,7 +9035,7 @@
         <v>2.4286985397338801E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>48</v>
       </c>
@@ -9062,7 +9055,7 @@
         <v>2.4646997451782199E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>48</v>
       </c>
@@ -9182,7 +9175,7 @@
         <v>8.0935001373291002E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>49</v>
       </c>
@@ -9202,7 +9195,7 @@
         <v>6.5709114074707003E-2</v>
       </c>
     </row>
-    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>49</v>
       </c>
@@ -9222,7 +9215,7 @@
         <v>6.4027786254882799E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>49</v>
       </c>
@@ -9242,7 +9235,7 @@
         <v>6.3884019851684501E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>49</v>
       </c>
@@ -9362,7 +9355,7 @@
         <v>1.9747734069824201E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>50</v>
       </c>
@@ -9382,7 +9375,7 @@
         <v>2.5930404663085898E-3</v>
       </c>
     </row>
-    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>50</v>
       </c>
@@ -9402,7 +9395,7 @@
         <v>2.5537014007568299E-3</v>
       </c>
     </row>
-    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>50</v>
       </c>
@@ -9422,7 +9415,7 @@
         <v>2.8648376464843698E-3</v>
       </c>
     </row>
-    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>50</v>
       </c>
